--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H2">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I2">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J2">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>36.759204931488</v>
+        <v>27.08908205277444</v>
       </c>
       <c r="R2">
-        <v>330.8328443833921</v>
+        <v>243.80173847497</v>
       </c>
       <c r="S2">
-        <v>0.06101311058586691</v>
+        <v>0.0403649962874349</v>
       </c>
       <c r="T2">
-        <v>0.06101311058586691</v>
+        <v>0.04036499628743491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H3">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I3">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J3">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>3.129144391221333</v>
+        <v>2.184011036903111</v>
       </c>
       <c r="R3">
-        <v>28.162299520992</v>
+        <v>19.656099332128</v>
       </c>
       <c r="S3">
-        <v>0.005193769373863442</v>
+        <v>0.003254358978446148</v>
       </c>
       <c r="T3">
-        <v>0.005193769373863442</v>
+        <v>0.003254358978446148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H4">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I4">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J4">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>0.6140180718446667</v>
+        <v>0.6875153866352223</v>
       </c>
       <c r="R4">
-        <v>5.526162646602</v>
+        <v>6.187638479717</v>
       </c>
       <c r="S4">
-        <v>0.001019150239756367</v>
+        <v>0.00102445538667645</v>
       </c>
       <c r="T4">
-        <v>0.001019150239756367</v>
+        <v>0.00102445538667645</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H5">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I5">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J5">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>0.249691810953</v>
+        <v>0.1198186637147778</v>
       </c>
       <c r="R5">
-        <v>2.247226298577</v>
+        <v>1.078367973433</v>
       </c>
       <c r="S5">
-        <v>0.0004144397057132996</v>
+        <v>0.0001785398230397794</v>
       </c>
       <c r="T5">
-        <v>0.0004144397057132997</v>
+        <v>0.0001785398230397795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.777907</v>
+        <v>0.5429463333333333</v>
       </c>
       <c r="H6">
-        <v>2.333721</v>
+        <v>1.628839</v>
       </c>
       <c r="I6">
-        <v>0.06867740520458042</v>
+        <v>0.04659251079363984</v>
       </c>
       <c r="J6">
-        <v>0.06867740520458043</v>
+        <v>0.04659251079363985</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>0.624733222165</v>
+        <v>1.187960423941556</v>
       </c>
       <c r="R6">
-        <v>5.622598999485001</v>
+        <v>10.691643815474</v>
       </c>
       <c r="S6">
-        <v>0.001036935299380403</v>
+        <v>0.001770160318042569</v>
       </c>
       <c r="T6">
-        <v>0.001036935299380403</v>
+        <v>0.00177016031804257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J7">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>487.784495032224</v>
+        <v>515.0233811528434</v>
       </c>
       <c r="R7">
-        <v>4390.060455290016</v>
+        <v>4635.21043037559</v>
       </c>
       <c r="S7">
-        <v>0.8096271231366812</v>
+        <v>0.767427882114134</v>
       </c>
       <c r="T7">
-        <v>0.8096271231366811</v>
+        <v>0.7674278821141343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J8">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
         <v>41.52288167275733</v>
@@ -948,10 +948,10 @@
         <v>373.7059350548159</v>
       </c>
       <c r="S8">
-        <v>0.06891988485783761</v>
+        <v>0.06187256405732605</v>
       </c>
       <c r="T8">
-        <v>0.06891988485783759</v>
+        <v>0.06187256405732606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>30.967833</v>
       </c>
       <c r="I9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J9">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>8.147850196260666</v>
+        <v>13.07118854487767</v>
       </c>
       <c r="R9">
-        <v>73.33065176634599</v>
+        <v>117.640696903899</v>
       </c>
       <c r="S9">
-        <v>0.01352384215023352</v>
+        <v>0.01947716338480766</v>
       </c>
       <c r="T9">
-        <v>0.01352384215023352</v>
+        <v>0.01947716338480766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.967833</v>
       </c>
       <c r="I10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J10">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>3.313341356168999</v>
+        <v>2.278017881572333</v>
       </c>
       <c r="R10">
-        <v>29.820072205521</v>
+        <v>20.502160934151</v>
       </c>
       <c r="S10">
-        <v>0.005499500409474231</v>
+        <v>0.003394437033829275</v>
       </c>
       <c r="T10">
-        <v>0.00549950040947423</v>
+        <v>0.003394437033829276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>30.967833</v>
       </c>
       <c r="I11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024722</v>
       </c>
       <c r="J11">
-        <v>0.911330195532704</v>
+        <v>0.8858267105024723</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>8.290037281045</v>
+        <v>22.58575587840867</v>
       </c>
       <c r="R11">
-        <v>74.61033552940501</v>
+        <v>203.271802905678</v>
       </c>
       <c r="S11">
-        <v>0.01375984497847743</v>
+        <v>0.03365466391237513</v>
       </c>
       <c r="T11">
-        <v>0.01375984497847743</v>
+        <v>0.03365466391237513</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H12">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I12">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J12">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>10.70082219008</v>
+        <v>39.29174943175445</v>
       </c>
       <c r="R12">
-        <v>96.30739971072002</v>
+        <v>353.6257448857901</v>
       </c>
       <c r="S12">
-        <v>0.0177612777224075</v>
+        <v>0.05854799054651438</v>
       </c>
       <c r="T12">
-        <v>0.0177612777224075</v>
+        <v>0.0585479905465144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H13">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I13">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J13">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>0.9109124585244445</v>
+        <v>3.167830281255111</v>
       </c>
       <c r="R13">
-        <v>8.19821212672</v>
+        <v>28.510472531296</v>
       </c>
       <c r="S13">
-        <v>0.001511937014676505</v>
+        <v>0.004720331877358322</v>
       </c>
       <c r="T13">
-        <v>0.001511937014676505</v>
+        <v>0.004720331877358323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H14">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I14">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J14">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>0.1787442960355556</v>
+        <v>0.9972166000132224</v>
       </c>
       <c r="R14">
-        <v>1.60869866432</v>
+        <v>8.974949400119002</v>
       </c>
       <c r="S14">
-        <v>0.0002966806687178482</v>
+        <v>0.001485936078560459</v>
       </c>
       <c r="T14">
-        <v>0.0002966806687178482</v>
+        <v>0.00148593607856046</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H15">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I15">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J15">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>0.07268676448</v>
+        <v>0.1737927074367778</v>
       </c>
       <c r="R15">
-        <v>0.65418088032</v>
+        <v>1.564134366931</v>
       </c>
       <c r="S15">
-        <v>0.0001206458520420338</v>
+        <v>0.0002589656591833575</v>
       </c>
       <c r="T15">
-        <v>0.0001206458520420338</v>
+        <v>0.0002589656591833576</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2264533333333334</v>
+        <v>0.7875243333333334</v>
       </c>
       <c r="H16">
-        <v>0.6793600000000001</v>
+        <v>2.362573</v>
       </c>
       <c r="I16">
-        <v>0.01999239926271553</v>
+        <v>0.06758077870388791</v>
       </c>
       <c r="J16">
-        <v>0.01999239926271554</v>
+        <v>0.06758077870388793</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>0.1818635397333334</v>
+        <v>1.723094316057556</v>
       </c>
       <c r="R16">
-        <v>1.6367718576</v>
+        <v>15.507848844518</v>
       </c>
       <c r="S16">
-        <v>0.0003018580048716495</v>
+        <v>0.00256755454227139</v>
       </c>
       <c r="T16">
-        <v>0.0003018580048716495</v>
+        <v>0.00256755454227139</v>
       </c>
     </row>
   </sheetData>
